--- a/PythonPWAExtension_library/Data/biffurcationTree.xlsx
+++ b/PythonPWAExtension_library/Data/biffurcationTree.xlsx
@@ -1,20 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10315"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwolos/Documents/git_repos/STBI/PythonPWAExtension_library/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF342E30-47F7-A14E-AE24-5C160C78E62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Arkusz1"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -55,24 +73,6 @@
     <t>Step</t>
   </si>
   <si>
-    <t>Autoregulation</t>
-  </si>
-  <si>
-    <t>L [mm]</t>
-  </si>
-  <si>
-    <t>Diam top (mm)</t>
-  </si>
-  <si>
-    <t>Diam bottom (mm)</t>
-  </si>
-  <si>
-    <t>RT [mmHg*s/ml]</t>
-  </si>
-  <si>
-    <t>CT 10^-5 ml/mmHg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aorta I </t>
   </si>
   <si>
@@ -209,14 +209,19 @@
   </si>
   <si>
     <t>Ulnar B</t>
+  </si>
+  <si>
+    <t>Posterior tibial A</t>
+  </si>
+  <si>
+    <t>Anterior tibial A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +240,16 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Tekst podstawowy)"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Tekst podstawowy)"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -264,50 +279,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -318,10 +371,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -359,71 +412,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,7 +504,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -474,11 +527,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -487,13 +540,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -503,7 +556,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -512,7 +565,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -521,7 +574,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -529,10 +582,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -597,38 +650,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S76"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="9.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="8" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,31 +714,19 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="N1" s="1"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
@@ -727,30 +761,23 @@
       <c r="M2" s="3">
         <v>0.5</v>
       </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E3" s="3">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -776,21 +803,14 @@
       <c r="M3" s="3">
         <v>0.5</v>
       </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3">
         <v>3.5</v>
@@ -825,21 +845,14 @@
       <c r="M4" s="3">
         <v>0.5</v>
       </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -874,21 +887,14 @@
       <c r="M5" s="3">
         <v>0.5</v>
       </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>21</v>
@@ -923,21 +929,14 @@
       <c r="M6" s="3">
         <v>0.5</v>
       </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3">
         <v>17.5</v>
@@ -972,30 +971,23 @@
       <c r="M7" s="3">
         <v>0.5</v>
       </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
         <v>3.5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.423</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="E8" s="3">
-        <v>0.423</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
@@ -1021,21 +1013,14 @@
       <c r="M8" s="3">
         <v>0.5</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
@@ -1070,30 +1055,23 @@
       <c r="M9" s="3">
         <v>0.5</v>
       </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3">
         <v>3.5</v>
       </c>
       <c r="D10" s="3">
-        <v>0.423</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="E10" s="3">
-        <v>0.423</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="F10" s="1">
         <v>4</v>
@@ -1119,21 +1097,14 @@
       <c r="M10" s="3">
         <v>0.5</v>
       </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3">
         <v>17.5</v>
@@ -1142,7 +1113,7 @@
         <v>0.15</v>
       </c>
       <c r="E11" s="3">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F11" s="1">
         <v>5</v>
@@ -1168,21 +1139,14 @@
       <c r="M11" s="3">
         <v>0.5</v>
       </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3">
         <v>17.5</v>
@@ -1217,21 +1181,14 @@
       <c r="M12" s="3">
         <v>0.5</v>
       </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3">
         <v>17.5</v>
@@ -1266,21 +1223,14 @@
       <c r="M13" s="3">
         <v>0.5</v>
       </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3">
         <v>17.5</v>
@@ -1289,7 +1239,7 @@
         <v>0.15</v>
       </c>
       <c r="E14" s="3">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F14" s="1">
         <v>6</v>
@@ -1315,30 +1265,23 @@
       <c r="M14" s="3">
         <v>0.5</v>
       </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1">
         <v>15</v>
       </c>
       <c r="D15" s="3">
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E15" s="3">
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="F15" s="1">
         <v>7</v>
@@ -1364,30 +1307,23 @@
       <c r="M15" s="3">
         <v>0.5</v>
       </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1">
         <v>42</v>
       </c>
       <c r="D16" s="3">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="E16" s="3">
-        <v>0.236</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="F16" s="1">
         <v>7</v>
@@ -1413,30 +1349,23 @@
       <c r="M16" s="3">
         <v>0.5</v>
       </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
         <v>42</v>
       </c>
       <c r="D17" s="3">
-        <v>0.403</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="E17" s="3">
-        <v>0.236</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="F17" s="1">
         <v>9</v>
@@ -1462,30 +1391,23 @@
       <c r="M17" s="3">
         <v>0.5</v>
       </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1">
         <v>15</v>
       </c>
       <c r="D18" s="3">
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="E18" s="3">
-        <v>0.136</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="F18" s="1">
         <v>9</v>
@@ -1511,21 +1433,14 @@
       <c r="M18" s="3">
         <v>0.5</v>
       </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3">
         <v>0.5</v>
@@ -1560,30 +1475,23 @@
       <c r="M19" s="3">
         <v>0.5</v>
       </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3">
         <v>1.5</v>
       </c>
       <c r="D20" s="3">
-        <v>0.073</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E20" s="3">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F20" s="1">
         <v>27</v>
@@ -1609,30 +1517,23 @@
       <c r="M20" s="3">
         <v>0.5</v>
       </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3">
         <v>1.5</v>
       </c>
       <c r="D21" s="3">
-        <v>0.073</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="E21" s="3">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F21" s="1">
         <v>28</v>
@@ -1658,21 +1559,14 @@
       <c r="M21" s="3">
         <v>0.5</v>
       </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3">
         <v>0.5</v>
@@ -1707,27 +1601,20 @@
       <c r="M22" s="3">
         <v>0.5</v>
       </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>0.162</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="E23" s="3">
         <v>0.11</v>
@@ -1756,27 +1643,20 @@
       <c r="M23" s="3">
         <v>0.5</v>
       </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1">
         <v>12</v>
       </c>
       <c r="D24" s="3">
-        <v>0.143</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E24" s="3">
         <v>0.12</v>
@@ -1805,27 +1685,20 @@
       <c r="M24" s="3">
         <v>0.5</v>
       </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1">
         <v>12</v>
       </c>
       <c r="D25" s="3">
-        <v>0.143</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E25" s="3">
         <v>0.12</v>
@@ -1854,30 +1727,23 @@
       <c r="M25" s="3">
         <v>0.5</v>
       </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="3">
-        <v>0.117</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="E26" s="3">
-        <v>0.116</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="F26" s="1">
         <v>18</v>
@@ -1903,30 +1769,23 @@
       <c r="M26" s="3">
         <v>0.5</v>
       </c>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="3">
-        <v>0.117</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="E27" s="3">
-        <v>0.116</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="F27" s="1">
         <v>21</v>
@@ -1952,21 +1811,14 @@
       <c r="M27" s="3">
         <v>0.5</v>
       </c>
-      <c r="N27" s="1">
-        <v>0</v>
-      </c>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C28" s="3">
         <v>0.5</v>
@@ -2001,21 +1853,14 @@
       <c r="M28" s="3">
         <v>0.5</v>
       </c>
-      <c r="N28" s="1">
-        <v>0</v>
-      </c>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C29" s="3">
         <v>0.5</v>
@@ -2050,21 +1895,14 @@
       <c r="M29" s="3">
         <v>0.5</v>
       </c>
-      <c r="N29" s="1">
-        <v>0</v>
-      </c>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
         <v>10</v>
@@ -2088,7 +1926,7 @@
         <v>8.48</v>
       </c>
       <c r="J30" s="3">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K30" s="1">
         <v>10</v>
@@ -2099,21 +1937,14 @@
       <c r="M30" s="3">
         <v>0.5</v>
       </c>
-      <c r="N30" s="1">
-        <v>0</v>
-      </c>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1">
         <v>10</v>
@@ -2137,7 +1968,7 @@
         <v>8.48</v>
       </c>
       <c r="J31" s="3">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -2148,30 +1979,23 @@
       <c r="M31" s="3">
         <v>0.5</v>
       </c>
-      <c r="N31" s="1">
-        <v>0</v>
-      </c>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C32" s="3">
         <v>0.5</v>
       </c>
       <c r="D32" s="3">
-        <v>0.074</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E32" s="3">
-        <v>0.074</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="F32" s="1">
         <v>25</v>
@@ -2197,21 +2021,14 @@
       <c r="M32" s="3">
         <v>0.5</v>
       </c>
-      <c r="N32" s="1">
-        <v>0</v>
-      </c>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C33" s="3">
         <v>8.5</v>
@@ -2246,21 +2063,14 @@
       <c r="M33" s="3">
         <v>0.5</v>
       </c>
-      <c r="N33" s="1">
-        <v>0</v>
-      </c>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C34" s="3">
         <v>8.5</v>
@@ -2295,21 +2105,14 @@
       <c r="M34" s="3">
         <v>0.5</v>
       </c>
-      <c r="N34" s="1">
-        <v>0</v>
-      </c>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
         <v>8</v>
@@ -2344,30 +2147,28 @@
       <c r="M35" s="3">
         <v>0.5</v>
       </c>
-      <c r="N35" s="1">
-        <v>0</v>
-      </c>
-      <c r="O35" s="5"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="4"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row r="36" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C36" s="3">
         <v>10.5</v>
       </c>
       <c r="D36" s="3">
-        <v>0.675</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="E36" s="3">
-        <v>0.645</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="F36" s="1">
         <v>8</v>
@@ -2393,1435 +2194,1748 @@
       <c r="M36" s="3">
         <v>0.5</v>
       </c>
-      <c r="N36" s="1">
-        <v>0</v>
-      </c>
-      <c r="O36" s="5"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="4"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="5">
+    <row r="37" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="7">
+      <c r="B37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="6">
         <v>5.5</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>0.61</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>0.6</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <v>35</v>
       </c>
-      <c r="G37" s="5">
-        <v>0</v>
-      </c>
-      <c r="H37" s="5">
-        <v>0</v>
-      </c>
-      <c r="I37" s="5">
-        <v>0</v>
-      </c>
-      <c r="J37" s="5">
-        <v>0</v>
-      </c>
-      <c r="K37" s="7">
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="6">
         <v>5</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="4">
         <v>0</v>
       </c>
       <c r="M37" s="3">
         <v>0.5</v>
       </c>
-      <c r="N37" s="1">
-        <v>0</v>
-      </c>
-      <c r="O37" s="5"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="4"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
-      <c r="A38" s="5">
+    <row r="38" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="5">
+      <c r="B38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4">
         <v>1</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>0.39</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <v>0.38</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <v>35</v>
       </c>
-      <c r="G38" s="5">
-        <v>0</v>
-      </c>
-      <c r="H38" s="5">
-        <v>0</v>
-      </c>
-      <c r="I38" s="5">
-        <v>0</v>
-      </c>
-      <c r="J38" s="5">
-        <v>0</v>
-      </c>
-      <c r="K38" s="7">
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
         <v>1</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="4">
         <v>0</v>
       </c>
       <c r="M38" s="3">
         <v>0.5</v>
       </c>
-      <c r="N38" s="1">
-        <v>0</v>
-      </c>
-      <c r="O38" s="5"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="4"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
-      <c r="A39" s="5">
+    <row r="39" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="5">
+      <c r="B39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="4">
         <v>1</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>0.2</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <v>0.19</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="4">
         <v>37</v>
       </c>
-      <c r="G39" s="5">
-        <v>0</v>
-      </c>
-      <c r="H39" s="5">
-        <v>0</v>
-      </c>
-      <c r="I39" s="5">
-        <v>0</v>
-      </c>
-      <c r="J39" s="5">
-        <v>0</v>
-      </c>
-      <c r="K39" s="7">
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
         <v>1</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="4">
         <v>0</v>
       </c>
       <c r="M39" s="3">
         <v>0.5</v>
       </c>
-      <c r="N39" s="1">
-        <v>0</v>
-      </c>
-      <c r="O39" s="5"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="4"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
-      <c r="A40" s="5">
+    <row r="40" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="7">
+      <c r="B40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="6">
         <v>6.5</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <v>0.22</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <v>0.21</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <v>37</v>
       </c>
-      <c r="G40" s="5">
-        <v>0</v>
-      </c>
-      <c r="H40" s="5">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
         <v>3.64</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="6">
         <v>5.13</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="6">
         <v>6</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="4">
         <v>0</v>
       </c>
       <c r="M40" s="3">
         <v>0.5</v>
       </c>
-      <c r="N40" s="1">
-        <v>0</v>
-      </c>
-      <c r="O40" s="5"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="4"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
-      <c r="A41" s="5">
+    <row r="41" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="7">
+      <c r="B41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="6">
         <v>7</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <v>0.18</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <v>0.17</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="4">
         <v>38</v>
       </c>
-      <c r="G41" s="5">
-        <v>0</v>
-      </c>
-      <c r="H41" s="5">
-        <v>0</v>
-      </c>
-      <c r="I41" s="7">
-        <v>5.426667</v>
-      </c>
-      <c r="J41" s="7">
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <v>5.4266670000000001</v>
+      </c>
+      <c r="J41" s="6">
         <v>3.44</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="6">
         <v>7</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="4">
         <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>0.5</v>
       </c>
-      <c r="N41" s="1">
-        <v>0</v>
-      </c>
-      <c r="O41" s="5"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="4"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
-      <c r="A42" s="5">
+    <row r="42" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="7">
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="6">
         <v>6.5</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <v>0.18</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <v>0.17</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <v>38</v>
       </c>
-      <c r="G42" s="5">
-        <v>0</v>
-      </c>
-      <c r="H42" s="5">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>2.32</v>
-      </c>
-      <c r="J42" s="7">
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="J42" s="6">
         <v>8.01</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="6">
         <v>6</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="4">
         <v>0</v>
       </c>
       <c r="M42" s="3">
         <v>0.5</v>
       </c>
-      <c r="N42" s="1">
-        <v>0</v>
-      </c>
-      <c r="O42" s="5"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="4"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
-      <c r="A43" s="5">
+    <row r="43" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="7">
+      <c r="B43" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="6">
         <v>6</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>0.44</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <v>0.42</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="4">
         <v>36</v>
       </c>
-      <c r="G43" s="5">
-        <v>0</v>
-      </c>
-      <c r="H43" s="5">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0.933333</v>
-      </c>
-      <c r="J43" s="7">
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0.93333299999999997</v>
+      </c>
+      <c r="J43" s="6">
         <v>20</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="6">
         <v>5</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="4">
         <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>0.5</v>
       </c>
-      <c r="N43" s="1">
-        <v>0</v>
-      </c>
-      <c r="O43" s="5"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="4"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
-      <c r="A44" s="5">
+    <row r="44" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="5">
+      <c r="B44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="4">
         <v>1</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="6">
         <v>0.6</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <v>0.59</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <v>36</v>
       </c>
-      <c r="G44" s="5">
-        <v>0</v>
-      </c>
-      <c r="H44" s="5">
-        <v>0</v>
-      </c>
-      <c r="I44" s="5">
-        <v>0</v>
-      </c>
-      <c r="J44" s="5">
-        <v>0</v>
-      </c>
-      <c r="K44" s="7">
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
         <v>2</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="4">
         <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>0.5</v>
       </c>
-      <c r="N44" s="1">
-        <v>0</v>
-      </c>
-      <c r="O44" s="5"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="4"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
-      <c r="A45" s="5">
+    <row r="45" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="7">
+      <c r="B45" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="6">
         <v>3</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>0.26</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>0.25</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="4">
         <v>43</v>
       </c>
-      <c r="G45" s="5">
-        <v>0</v>
-      </c>
-      <c r="H45" s="5">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>1.133333</v>
-      </c>
-      <c r="J45" s="7">
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
+        <v>1.1333329999999999</v>
+      </c>
+      <c r="J45" s="6">
         <v>16.46</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="6">
         <v>3</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="4">
         <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>0.5</v>
       </c>
-      <c r="N45" s="1">
-        <v>0</v>
-      </c>
-      <c r="O45" s="5"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="4"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
-      <c r="A46" s="5">
+    <row r="46" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="5">
+      <c r="B46" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="4">
         <v>1</v>
       </c>
-      <c r="D46" s="7">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="E46" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="F46" s="5">
+      <c r="D46" s="6">
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F46" s="4">
         <v>43</v>
       </c>
-      <c r="G46" s="5">
-        <v>0</v>
-      </c>
-      <c r="H46" s="5">
-        <v>0</v>
-      </c>
-      <c r="I46" s="5">
-        <v>0</v>
-      </c>
-      <c r="J46" s="5">
-        <v>0</v>
-      </c>
-      <c r="K46" s="7">
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6">
         <v>2</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="4">
         <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>0.5</v>
       </c>
-      <c r="N46" s="1">
-        <v>0</v>
-      </c>
-      <c r="O46" s="5"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="4"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
-      <c r="A47" s="5">
+    <row r="47" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="7">
+      <c r="B47" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="6">
         <v>3</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <v>0.26</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <v>0.25</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="4">
         <v>45</v>
       </c>
-      <c r="G47" s="5">
-        <v>0</v>
-      </c>
-      <c r="H47" s="5">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7">
-        <v>1.133333</v>
-      </c>
-      <c r="J47" s="7">
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <v>1.1333329999999999</v>
+      </c>
+      <c r="J47" s="6">
         <v>16.46</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="6">
         <v>3</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="4">
         <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>0.5</v>
       </c>
-      <c r="N47" s="1">
-        <v>0</v>
-      </c>
-      <c r="O47" s="5"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="4"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
-      <c r="A48" s="5">
+    <row r="48" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="7">
+      <c r="B48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="6">
         <v>10.5</v>
       </c>
-      <c r="D48" s="7">
-        <v>0.58</v>
-      </c>
-      <c r="E48" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="F48" s="5">
+      <c r="D48" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F48" s="4">
         <v>45</v>
       </c>
-      <c r="G48" s="5">
-        <v>0</v>
-      </c>
-      <c r="H48" s="5">
-        <v>0</v>
-      </c>
-      <c r="I48" s="5">
-        <v>0</v>
-      </c>
-      <c r="J48" s="5">
-        <v>0</v>
-      </c>
-      <c r="K48" s="7">
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6">
         <v>10</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="4">
         <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>0.5</v>
       </c>
-      <c r="N48" s="1">
-        <v>0</v>
-      </c>
-      <c r="O48" s="5"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="4"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
-      <c r="A49" s="5">
+    <row r="49" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="5">
+      <c r="B49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="4">
         <v>5</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <v>0.18</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="6">
         <v>0.16</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="4">
         <v>47</v>
       </c>
-      <c r="G49" s="5">
-        <v>0</v>
-      </c>
-      <c r="H49" s="5">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>6.893333</v>
-      </c>
-      <c r="J49" s="7">
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6">
+        <v>6.8933330000000002</v>
+      </c>
+      <c r="J49" s="6">
         <v>2.7</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49" s="6">
         <v>5</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="4">
         <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>0.5</v>
       </c>
-      <c r="N49" s="1">
-        <v>0</v>
-      </c>
-      <c r="O49" s="5"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="4"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
-      <c r="A50" s="5">
+    <row r="50" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="5">
+      <c r="B50" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="4">
         <v>1</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="6">
         <v>0.54</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="6">
         <v>0.52</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="4">
         <v>47</v>
       </c>
-      <c r="G50" s="5">
-        <v>0</v>
-      </c>
-      <c r="H50" s="5">
-        <v>0</v>
-      </c>
-      <c r="I50" s="5">
-        <v>0</v>
-      </c>
-      <c r="J50" s="5">
-        <v>0</v>
-      </c>
-      <c r="K50" s="7">
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6">
         <v>2</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50" s="4">
         <v>0</v>
       </c>
       <c r="M50" s="3">
         <v>0.5</v>
       </c>
-      <c r="N50" s="1">
-        <v>0</v>
-      </c>
-      <c r="O50" s="5"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="4"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
-      <c r="A51" s="5">
+    <row r="51" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="7">
+      <c r="B51" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="6">
         <v>6</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="6">
         <v>0.37</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="6">
         <v>0.35</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="4">
         <v>49</v>
       </c>
-      <c r="G51" s="5">
-        <v>0</v>
-      </c>
-      <c r="H51" s="5">
-        <v>0</v>
-      </c>
-      <c r="I51" s="5">
-        <v>0</v>
-      </c>
-      <c r="J51" s="5">
-        <v>0</v>
-      </c>
-      <c r="K51" s="7">
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="6">
         <v>5</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L51" s="4">
         <v>0</v>
       </c>
       <c r="M51" s="3">
         <v>0.5</v>
       </c>
-      <c r="N51" s="1">
-        <v>0</v>
-      </c>
-      <c r="O51" s="5"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="4"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
-      <c r="A52" s="5">
+    <row r="52" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="7">
+      <c r="B52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="6">
         <v>14.5</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="6">
         <v>0.32</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <v>0.27</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="4">
         <v>50</v>
       </c>
-      <c r="G52" s="5">
-        <v>0</v>
-      </c>
-      <c r="H52" s="5">
-        <v>0</v>
-      </c>
-      <c r="I52" s="5">
-        <v>0</v>
-      </c>
-      <c r="J52" s="5">
-        <v>0</v>
-      </c>
-      <c r="K52" s="7">
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="6">
         <v>14</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L52" s="4">
         <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>0.5</v>
       </c>
-      <c r="N52" s="1">
-        <v>0</v>
-      </c>
-      <c r="O52" s="5"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="4"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
-      <c r="A53" s="5">
+    <row r="53" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="5">
+      <c r="B53" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="4">
         <v>5</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <v>0.2</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="6">
         <v>0.19</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="4">
         <v>50</v>
       </c>
-      <c r="G53" s="5">
-        <v>0</v>
-      </c>
-      <c r="H53" s="5">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7">
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="6">
         <v>7.96</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="6">
         <v>2.34</v>
       </c>
-      <c r="K53" s="7">
+      <c r="K53" s="6">
         <v>5</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L53" s="4">
         <v>0</v>
       </c>
       <c r="M53" s="3">
         <v>0.5</v>
       </c>
-      <c r="N53" s="1">
-        <v>0</v>
-      </c>
-      <c r="O53" s="5"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="4"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
-      <c r="A54" s="5">
+    <row r="54" spans="1:19" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="19">
         <v>53</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="21">
+        <v>44.5</v>
+      </c>
+      <c r="D54" s="21">
+        <v>0.26</v>
+      </c>
+      <c r="E54" s="21">
+        <v>0.19</v>
+      </c>
+      <c r="F54" s="19">
+        <v>51</v>
+      </c>
+      <c r="G54" s="19">
+        <v>0</v>
+      </c>
+      <c r="H54" s="19">
+        <v>0</v>
+      </c>
+      <c r="I54" s="19">
+        <v>0</v>
+      </c>
+      <c r="J54" s="19">
+        <v>0</v>
+      </c>
+      <c r="K54" s="21">
+        <v>44</v>
+      </c>
+      <c r="L54" s="19">
+        <v>0</v>
+      </c>
+      <c r="M54" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="N54" s="23"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+    </row>
+    <row r="55" spans="1:19" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="19">
+        <v>54</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="21">
+        <v>12.5</v>
+      </c>
+      <c r="D55" s="21">
+        <v>0.26</v>
+      </c>
+      <c r="E55" s="21">
+        <v>0.185</v>
+      </c>
+      <c r="F55" s="19">
+        <v>51</v>
+      </c>
+      <c r="G55" s="19">
+        <v>0</v>
+      </c>
+      <c r="H55" s="19">
+        <v>0</v>
+      </c>
+      <c r="I55" s="21">
+        <v>4.7866669999999996</v>
+      </c>
+      <c r="J55" s="21">
+        <v>3.9</v>
+      </c>
+      <c r="K55" s="21">
+        <v>12</v>
+      </c>
+      <c r="L55" s="19">
+        <v>0</v>
+      </c>
+      <c r="M55" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="N55" s="23"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+    </row>
+    <row r="56" spans="1:19" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="19">
+        <v>55</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="21">
+        <v>32</v>
+      </c>
+      <c r="D56" s="21">
+        <v>0.155</v>
+      </c>
+      <c r="E56" s="21">
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="F56" s="19">
+        <v>53</v>
+      </c>
+      <c r="G56" s="19">
+        <v>0</v>
+      </c>
+      <c r="H56" s="19">
+        <v>0</v>
+      </c>
+      <c r="I56" s="21">
+        <v>4.7866669999999996</v>
+      </c>
+      <c r="J56" s="21">
+        <v>3.9</v>
+      </c>
+      <c r="K56" s="21">
+        <v>32</v>
+      </c>
+      <c r="L56" s="19">
+        <v>0</v>
+      </c>
+      <c r="M56" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="N56" s="23"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+    </row>
+    <row r="57" spans="1:19" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="19">
+        <v>56</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="21">
+        <v>34.5</v>
+      </c>
+      <c r="D57" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="E57" s="21">
+        <v>0.12</v>
+      </c>
+      <c r="F57" s="19">
+        <v>53</v>
+      </c>
+      <c r="G57" s="19">
+        <v>0</v>
+      </c>
+      <c r="H57" s="19">
+        <v>0</v>
+      </c>
+      <c r="I57" s="21">
+        <v>5.6</v>
+      </c>
+      <c r="J57" s="21">
+        <v>3.33</v>
+      </c>
+      <c r="K57" s="21">
+        <v>32</v>
+      </c>
+      <c r="L57" s="19">
+        <v>0</v>
+      </c>
+      <c r="M57" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="N57" s="23"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+    </row>
+    <row r="58" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="C54" s="7">
+      <c r="B58" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E58" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F58" s="4">
+        <v>15</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="6">
+        <v>5.28</v>
+      </c>
+      <c r="J58" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="K58" s="6">
+        <v>12</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0.215</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0.215</v>
+      </c>
+      <c r="F59" s="4">
+        <v>15</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6">
+        <v>0</v>
+      </c>
+      <c r="K59" s="6">
+        <v>6</v>
+      </c>
+      <c r="L59" s="4">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="6">
+        <v>8</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F60" s="4">
+        <v>58</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="J60" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="K60" s="6">
+        <v>7</v>
+      </c>
+      <c r="L60" s="4">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="6">
+        <v>17</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0.183</v>
+      </c>
+      <c r="F61" s="4">
+        <v>58</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0</v>
+      </c>
+      <c r="I61" s="6">
+        <v>5.28</v>
+      </c>
+      <c r="J61" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="K61" s="6">
+        <v>16</v>
+      </c>
+      <c r="L61" s="4">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="6">
+        <v>23.5</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E62" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F62" s="4">
+        <v>16</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+      <c r="I62" s="6">
+        <v>5.28</v>
+      </c>
+      <c r="J62" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="K62" s="6">
+        <v>12</v>
+      </c>
+      <c r="L62" s="4">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0.215</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="F63" s="4">
+        <v>16</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+      <c r="I63" s="6">
+        <v>0</v>
+      </c>
+      <c r="J63" s="6">
+        <v>0</v>
+      </c>
+      <c r="K63" s="6">
+        <v>6</v>
+      </c>
+      <c r="L63" s="4">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="6">
+        <v>8</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F64" s="4">
+        <v>62</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+      <c r="I64" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="J64" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="K64" s="6">
+        <v>7</v>
+      </c>
+      <c r="L64" s="4">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="6">
+        <v>17</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0.183</v>
+      </c>
+      <c r="F65" s="4">
+        <v>62</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0</v>
+      </c>
+      <c r="I65" s="6">
+        <v>5.28</v>
+      </c>
+      <c r="J65" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="K65" s="6">
+        <v>16</v>
+      </c>
+      <c r="L65" s="4">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="6">
+        <v>6</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="F66" s="4">
+        <v>49</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0</v>
+      </c>
+      <c r="J66" s="4">
+        <v>0</v>
+      </c>
+      <c r="K66" s="6">
+        <v>0</v>
+      </c>
+      <c r="L66" s="4">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N66" s="1"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+    </row>
+    <row r="67" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="6">
+        <v>14.5</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="F67" s="4">
+        <v>81</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67" s="6">
+        <v>7</v>
+      </c>
+      <c r="L67" s="4">
+        <v>0</v>
+      </c>
+      <c r="M67" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N67" s="1"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+    </row>
+    <row r="68" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="4">
+        <v>5</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="F68" s="4">
+        <v>81</v>
+      </c>
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+      <c r="I68" s="6">
+        <v>7.96</v>
+      </c>
+      <c r="J68" s="6">
+        <v>2.34</v>
+      </c>
+      <c r="K68" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="L68" s="4">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N68" s="1"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+    </row>
+    <row r="69" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="6">
         <v>44.5</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D69" s="6">
         <v>0.26</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E69" s="6">
         <v>0.19</v>
       </c>
-      <c r="F54" s="5">
-        <v>51</v>
-      </c>
-      <c r="G54" s="5">
-        <v>0</v>
-      </c>
-      <c r="H54" s="5">
-        <v>0</v>
-      </c>
-      <c r="I54" s="5">
-        <v>0</v>
-      </c>
-      <c r="J54" s="5">
-        <v>0</v>
-      </c>
-      <c r="K54" s="7">
-        <v>44</v>
-      </c>
-      <c r="L54" s="5">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N54" s="1">
-        <v>0</v>
-      </c>
-      <c r="O54" s="5"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
-      <c r="A55" s="5">
-        <v>54</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="7">
+      <c r="F69" s="4">
+        <v>82</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+      <c r="J69" s="4">
+        <v>0</v>
+      </c>
+      <c r="K69" s="6">
+        <v>22</v>
+      </c>
+      <c r="L69" s="4">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N69" s="1"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+    </row>
+    <row r="70" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="6">
         <v>12.5</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D70" s="6">
         <v>0.26</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E70" s="6">
         <v>0.185</v>
       </c>
-      <c r="F55" s="5">
-        <v>51</v>
-      </c>
-      <c r="G55" s="5">
-        <v>0</v>
-      </c>
-      <c r="H55" s="5">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7">
-        <v>4.786667</v>
-      </c>
-      <c r="J55" s="7">
+      <c r="F70" s="4">
+        <v>82</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+      <c r="I70" s="6">
+        <v>4.7866669999999996</v>
+      </c>
+      <c r="J70" s="6">
         <v>3.9</v>
       </c>
-      <c r="K55" s="7">
-        <v>12</v>
-      </c>
-      <c r="L55" s="5">
-        <v>0</v>
-      </c>
-      <c r="M55" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N55" s="1">
-        <v>0</v>
-      </c>
-      <c r="O55" s="5"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
-      <c r="A56" s="5">
-        <v>55</v>
-      </c>
-      <c r="B56" s="6" t="s">
+      <c r="K70" s="6">
+        <v>0</v>
+      </c>
+      <c r="L70" s="4">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N70" s="1"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+    </row>
+    <row r="71" spans="1:19" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C71" s="12">
         <v>32</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D71" s="12">
         <v>0.155</v>
       </c>
-      <c r="E56" s="7">
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="F56" s="5">
-        <v>53</v>
-      </c>
-      <c r="G56" s="5">
-        <v>0</v>
-      </c>
-      <c r="H56" s="5">
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <v>4.786667</v>
-      </c>
-      <c r="J56" s="7">
+      <c r="E71" s="12">
+        <v>0.1457</v>
+      </c>
+      <c r="F71" s="10">
+        <v>84</v>
+      </c>
+      <c r="G71" s="10">
+        <v>0</v>
+      </c>
+      <c r="H71" s="10">
+        <v>0</v>
+      </c>
+      <c r="I71" s="12">
+        <v>5.6</v>
+      </c>
+      <c r="J71" s="12">
+        <v>3.33</v>
+      </c>
+      <c r="K71" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="L71" s="10">
+        <v>0</v>
+      </c>
+      <c r="M71" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="N71" s="14"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+    </row>
+    <row r="72" spans="1:19" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="12">
+        <v>34.5</v>
+      </c>
+      <c r="D72" s="12">
+        <v>0.13</v>
+      </c>
+      <c r="E72" s="12">
+        <v>0.1242</v>
+      </c>
+      <c r="F72" s="10">
+        <v>84</v>
+      </c>
+      <c r="G72" s="10">
+        <v>0</v>
+      </c>
+      <c r="H72" s="10">
+        <v>0</v>
+      </c>
+      <c r="I72" s="12">
+        <v>4.7866669999999996</v>
+      </c>
+      <c r="J72" s="12">
         <v>3.9</v>
       </c>
-      <c r="K56" s="7">
-        <v>32</v>
-      </c>
-      <c r="L56" s="5">
-        <v>0</v>
-      </c>
-      <c r="M56" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N56" s="1">
-        <v>0</v>
-      </c>
-      <c r="O56" s="5"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
-      <c r="A57" s="5">
-        <v>56</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="7">
-        <v>34.5</v>
-      </c>
-      <c r="D57" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="E57" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="F57" s="5">
-        <v>53</v>
-      </c>
-      <c r="G57" s="5">
-        <v>0</v>
-      </c>
-      <c r="H57" s="5">
-        <v>0</v>
-      </c>
-      <c r="I57" s="7">
-        <v>5.6</v>
-      </c>
-      <c r="J57" s="7">
-        <v>3.33</v>
-      </c>
-      <c r="K57" s="7">
-        <v>32</v>
-      </c>
-      <c r="L57" s="5">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N57" s="1">
-        <v>0</v>
-      </c>
-      <c r="O57" s="5"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
-      <c r="A58" s="5">
-        <v>57</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="7">
-        <v>23.5</v>
-      </c>
-      <c r="D58" s="7">
-        <v>0.174</v>
-      </c>
-      <c r="E58" s="7">
-        <v>0.07</v>
-      </c>
-      <c r="F58" s="5">
-        <v>15</v>
-      </c>
-      <c r="G58" s="5">
-        <v>0</v>
-      </c>
-      <c r="H58" s="5">
-        <v>0</v>
-      </c>
-      <c r="I58" s="7">
-        <v>5.28</v>
-      </c>
-      <c r="J58" s="7">
-        <v>3.52</v>
-      </c>
-      <c r="K58" s="7">
-        <v>12</v>
-      </c>
-      <c r="L58" s="5">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N58" s="1">
-        <v>0</v>
-      </c>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
-      <c r="A59" s="5">
-        <v>58</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="7">
-        <v>6.5</v>
-      </c>
-      <c r="D59" s="7">
-        <v>0.215</v>
-      </c>
-      <c r="E59" s="7">
-        <v>0.215</v>
-      </c>
-      <c r="F59" s="5">
-        <v>15</v>
-      </c>
-      <c r="G59" s="5">
-        <v>0</v>
-      </c>
-      <c r="H59" s="5">
-        <v>0</v>
-      </c>
-      <c r="I59" s="7">
-        <v>0</v>
-      </c>
-      <c r="J59" s="7">
-        <v>0</v>
-      </c>
-      <c r="K59" s="7">
+      <c r="K72" s="12">
         <v>6</v>
       </c>
-      <c r="L59" s="5">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N59" s="1">
-        <v>0</v>
-      </c>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
-      <c r="A60" s="5">
-        <v>59</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="7">
-        <v>8</v>
-      </c>
-      <c r="D60" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="E60" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="F60" s="5">
-        <v>58</v>
-      </c>
-      <c r="G60" s="5">
-        <v>0</v>
-      </c>
-      <c r="H60" s="5">
-        <v>0</v>
-      </c>
-      <c r="I60" s="7">
-        <v>8.4</v>
-      </c>
-      <c r="J60" s="7">
-        <v>0.22</v>
-      </c>
-      <c r="K60" s="7">
-        <v>7</v>
-      </c>
-      <c r="L60" s="5">
-        <v>0</v>
-      </c>
-      <c r="M60" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N60" s="1">
-        <v>0</v>
-      </c>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
-      <c r="A61" s="5">
-        <v>60</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="7">
-        <v>17</v>
-      </c>
-      <c r="D61" s="7">
-        <v>0.203</v>
-      </c>
-      <c r="E61" s="7">
-        <v>0.183</v>
-      </c>
-      <c r="F61" s="5">
-        <v>58</v>
-      </c>
-      <c r="G61" s="5">
-        <v>0</v>
-      </c>
-      <c r="H61" s="5">
-        <v>0</v>
-      </c>
-      <c r="I61" s="7">
-        <v>5.28</v>
-      </c>
-      <c r="J61" s="7">
-        <v>3.52</v>
-      </c>
-      <c r="K61" s="7">
-        <v>16</v>
-      </c>
-      <c r="L61" s="5">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N61" s="1">
-        <v>0</v>
-      </c>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
-      <c r="A62" s="5">
-        <v>61</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="7">
-        <v>23.5</v>
-      </c>
-      <c r="D62" s="7">
-        <v>0.174</v>
-      </c>
-      <c r="E62" s="7">
-        <v>0.07</v>
-      </c>
-      <c r="F62" s="5">
-        <v>16</v>
-      </c>
-      <c r="G62" s="5">
-        <v>0</v>
-      </c>
-      <c r="H62" s="5">
-        <v>0</v>
-      </c>
-      <c r="I62" s="7">
-        <v>5.28</v>
-      </c>
-      <c r="J62" s="7">
-        <v>3.52</v>
-      </c>
-      <c r="K62" s="7">
-        <v>12</v>
-      </c>
-      <c r="L62" s="5">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N62" s="1">
-        <v>0</v>
-      </c>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
-      <c r="A63" s="5">
-        <v>62</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="7">
-        <v>6.5</v>
-      </c>
-      <c r="D63" s="7">
-        <v>0.215</v>
-      </c>
-      <c r="E63" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="F63" s="5">
-        <v>16</v>
-      </c>
-      <c r="G63" s="5">
-        <v>0</v>
-      </c>
-      <c r="H63" s="5">
-        <v>0</v>
-      </c>
-      <c r="I63" s="7">
-        <v>0</v>
-      </c>
-      <c r="J63" s="7">
-        <v>0</v>
-      </c>
-      <c r="K63" s="7">
-        <v>6</v>
-      </c>
-      <c r="L63" s="5">
-        <v>0</v>
-      </c>
-      <c r="M63" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N63" s="1">
-        <v>0</v>
-      </c>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
-      <c r="A64" s="5">
-        <v>63</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="7">
-        <v>8</v>
-      </c>
-      <c r="D64" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="E64" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="F64" s="5">
-        <v>62</v>
-      </c>
-      <c r="G64" s="5">
-        <v>0</v>
-      </c>
-      <c r="H64" s="5">
-        <v>0</v>
-      </c>
-      <c r="I64" s="7">
-        <v>8.4</v>
-      </c>
-      <c r="J64" s="7">
-        <v>0.22</v>
-      </c>
-      <c r="K64" s="7">
-        <v>7</v>
-      </c>
-      <c r="L64" s="5">
-        <v>0</v>
-      </c>
-      <c r="M64" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N64" s="1">
-        <v>0</v>
-      </c>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
-      <c r="A65" s="5">
-        <v>64</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="7">
-        <v>17</v>
-      </c>
-      <c r="D65" s="7">
-        <v>0.203</v>
-      </c>
-      <c r="E65" s="7">
-        <v>0.183</v>
-      </c>
-      <c r="F65" s="5">
-        <v>62</v>
-      </c>
-      <c r="G65" s="5">
-        <v>0</v>
-      </c>
-      <c r="H65" s="5">
-        <v>0</v>
-      </c>
-      <c r="I65" s="7">
-        <v>5.28</v>
-      </c>
-      <c r="J65" s="7">
-        <v>3.52</v>
-      </c>
-      <c r="K65" s="7">
-        <v>16</v>
-      </c>
-      <c r="L65" s="5">
-        <v>0</v>
-      </c>
-      <c r="M65" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="N65" s="1">
-        <v>0</v>
-      </c>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
+      <c r="L72" s="10">
+        <v>0</v>
+      </c>
+      <c r="M72" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="N72" s="14"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="14"/>
+    </row>
+    <row r="73" spans="1:19" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="10"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="14"/>
+    </row>
+    <row r="74" spans="1:19" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="10"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="14"/>
+    </row>
+    <row r="75" spans="1:19" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="10"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="14"/>
+    </row>
+    <row r="76" spans="1:19" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="10"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PythonPWAExtension_library/Data/biffurcationTree.xlsx
+++ b/PythonPWAExtension_library/Data/biffurcationTree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwolos/Documents/git_repos/STBI/PythonPWAExtension_library/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF342E30-47F7-A14E-AE24-5C160C78E62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98A44A2-87C0-7848-9E31-CEEC865BB459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>Anterior tibial A</t>
+  </si>
+  <si>
+    <t>Autoreg</t>
   </si>
 </sst>
 </file>
@@ -279,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -308,47 +311,31 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -656,8 +643,8 @@
   </sheetPr>
   <dimension ref="A1:S76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -714,7 +701,9 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -761,7 +750,9 @@
       <c r="M2" s="3">
         <v>0.5</v>
       </c>
-      <c r="N2" s="1"/>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -803,7 +794,9 @@
       <c r="M3" s="3">
         <v>0.5</v>
       </c>
-      <c r="N3" s="1"/>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -845,7 +838,9 @@
       <c r="M4" s="3">
         <v>0.5</v>
       </c>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -887,7 +882,9 @@
       <c r="M5" s="3">
         <v>0.5</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -929,7 +926,9 @@
       <c r="M6" s="3">
         <v>0.5</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -971,7 +970,9 @@
       <c r="M7" s="3">
         <v>0.5</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -1013,7 +1014,9 @@
       <c r="M8" s="3">
         <v>0.5</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -1055,7 +1058,9 @@
       <c r="M9" s="3">
         <v>0.5</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -1097,7 +1102,9 @@
       <c r="M10" s="3">
         <v>0.5</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -1139,7 +1146,9 @@
       <c r="M11" s="3">
         <v>0.5</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -1181,7 +1190,9 @@
       <c r="M12" s="3">
         <v>0.5</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -1223,7 +1234,9 @@
       <c r="M13" s="3">
         <v>0.5</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -1265,7 +1278,9 @@
       <c r="M14" s="3">
         <v>0.5</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -1307,7 +1322,9 @@
       <c r="M15" s="3">
         <v>0.5</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -1349,7 +1366,9 @@
       <c r="M16" s="3">
         <v>0.5</v>
       </c>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -1391,7 +1410,9 @@
       <c r="M17" s="3">
         <v>0.5</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -1433,7 +1454,9 @@
       <c r="M18" s="3">
         <v>0.5</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -1475,7 +1498,9 @@
       <c r="M19" s="3">
         <v>0.5</v>
       </c>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -1517,7 +1542,9 @@
       <c r="M20" s="3">
         <v>0.5</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -1559,7 +1586,9 @@
       <c r="M21" s="3">
         <v>0.5</v>
       </c>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -1601,7 +1630,9 @@
       <c r="M22" s="3">
         <v>0.5</v>
       </c>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -1643,7 +1674,9 @@
       <c r="M23" s="3">
         <v>0.5</v>
       </c>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -1685,7 +1718,9 @@
       <c r="M24" s="3">
         <v>0.5</v>
       </c>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -1727,7 +1762,9 @@
       <c r="M25" s="3">
         <v>0.5</v>
       </c>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -1769,7 +1806,9 @@
       <c r="M26" s="3">
         <v>0.5</v>
       </c>
-      <c r="N26" s="1"/>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -1811,7 +1850,9 @@
       <c r="M27" s="3">
         <v>0.5</v>
       </c>
-      <c r="N27" s="1"/>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -1853,7 +1894,9 @@
       <c r="M28" s="3">
         <v>0.5</v>
       </c>
-      <c r="N28" s="1"/>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -1895,7 +1938,9 @@
       <c r="M29" s="3">
         <v>0.5</v>
       </c>
-      <c r="N29" s="1"/>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -1937,7 +1982,9 @@
       <c r="M30" s="3">
         <v>0.5</v>
       </c>
-      <c r="N30" s="1"/>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
@@ -1979,7 +2026,9 @@
       <c r="M31" s="3">
         <v>0.5</v>
       </c>
-      <c r="N31" s="1"/>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
@@ -2021,7 +2070,9 @@
       <c r="M32" s="3">
         <v>0.5</v>
       </c>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
@@ -2063,7 +2114,9 @@
       <c r="M33" s="3">
         <v>0.5</v>
       </c>
-      <c r="N33" s="1"/>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
@@ -2105,7 +2158,9 @@
       <c r="M34" s="3">
         <v>0.5</v>
       </c>
-      <c r="N34" s="1"/>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
@@ -2147,7 +2202,9 @@
       <c r="M35" s="3">
         <v>0.5</v>
       </c>
-      <c r="N35" s="1"/>
+      <c r="N35" s="1">
+        <v>0</v>
+      </c>
       <c r="O35" s="4"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -2194,7 +2251,9 @@
       <c r="M36" s="3">
         <v>0.5</v>
       </c>
-      <c r="N36" s="1"/>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
       <c r="O36" s="4"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -2241,7 +2300,9 @@
       <c r="M37" s="3">
         <v>0.5</v>
       </c>
-      <c r="N37" s="1"/>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
       <c r="O37" s="4"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
@@ -2288,7 +2349,9 @@
       <c r="M38" s="3">
         <v>0.5</v>
       </c>
-      <c r="N38" s="1"/>
+      <c r="N38" s="1">
+        <v>0</v>
+      </c>
       <c r="O38" s="4"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
@@ -2335,7 +2398,9 @@
       <c r="M39" s="3">
         <v>0.5</v>
       </c>
-      <c r="N39" s="1"/>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
       <c r="O39" s="4"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
@@ -2382,7 +2447,9 @@
       <c r="M40" s="3">
         <v>0.5</v>
       </c>
-      <c r="N40" s="1"/>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
       <c r="O40" s="4"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
@@ -2429,7 +2496,9 @@
       <c r="M41" s="3">
         <v>0.5</v>
       </c>
-      <c r="N41" s="1"/>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
       <c r="O41" s="4"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
@@ -2476,7 +2545,9 @@
       <c r="M42" s="3">
         <v>0.5</v>
       </c>
-      <c r="N42" s="1"/>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
       <c r="O42" s="4"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
@@ -2523,7 +2594,9 @@
       <c r="M43" s="3">
         <v>0.5</v>
       </c>
-      <c r="N43" s="1"/>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
       <c r="O43" s="4"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
@@ -2570,7 +2643,9 @@
       <c r="M44" s="3">
         <v>0.5</v>
       </c>
-      <c r="N44" s="1"/>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
       <c r="O44" s="4"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
@@ -2617,7 +2692,9 @@
       <c r="M45" s="3">
         <v>0.5</v>
       </c>
-      <c r="N45" s="1"/>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
       <c r="O45" s="4"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
@@ -2664,7 +2741,9 @@
       <c r="M46" s="3">
         <v>0.5</v>
       </c>
-      <c r="N46" s="1"/>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
       <c r="O46" s="4"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
@@ -2711,7 +2790,9 @@
       <c r="M47" s="3">
         <v>0.5</v>
       </c>
-      <c r="N47" s="1"/>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
       <c r="O47" s="4"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
@@ -2758,7 +2839,9 @@
       <c r="M48" s="3">
         <v>0.5</v>
       </c>
-      <c r="N48" s="1"/>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
       <c r="O48" s="4"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
@@ -2805,7 +2888,9 @@
       <c r="M49" s="3">
         <v>0.5</v>
       </c>
-      <c r="N49" s="1"/>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
       <c r="O49" s="4"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
@@ -2852,7 +2937,9 @@
       <c r="M50" s="3">
         <v>0.5</v>
       </c>
-      <c r="N50" s="1"/>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
       <c r="O50" s="4"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -2899,7 +2986,9 @@
       <c r="M51" s="3">
         <v>0.5</v>
       </c>
-      <c r="N51" s="1"/>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
       <c r="O51" s="4"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
@@ -2946,7 +3035,9 @@
       <c r="M52" s="3">
         <v>0.5</v>
       </c>
-      <c r="N52" s="1"/>
+      <c r="N52" s="1">
+        <v>0</v>
+      </c>
       <c r="O52" s="4"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
@@ -2993,200 +3084,210 @@
       <c r="M53" s="3">
         <v>0.5</v>
       </c>
-      <c r="N53" s="1"/>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
       <c r="O53" s="4"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
     </row>
-    <row r="54" spans="1:19" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="19">
+    <row r="54" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="6">
         <v>44.5</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="6">
         <v>0.26</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="6">
         <v>0.19</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54" s="4">
         <v>51</v>
       </c>
-      <c r="G54" s="19">
-        <v>0</v>
-      </c>
-      <c r="H54" s="19">
-        <v>0</v>
-      </c>
-      <c r="I54" s="19">
-        <v>0</v>
-      </c>
-      <c r="J54" s="19">
-        <v>0</v>
-      </c>
-      <c r="K54" s="21">
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="6">
         <v>44</v>
       </c>
-      <c r="L54" s="19">
-        <v>0</v>
-      </c>
-      <c r="M54" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="N54" s="23"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
-    </row>
-    <row r="55" spans="1:19" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="19">
+      <c r="L54" s="4">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
+      <c r="O54" s="4"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+    </row>
+    <row r="55" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="6">
         <v>12.5</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="6">
         <v>0.26</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="6">
         <v>0.185</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="4">
         <v>51</v>
       </c>
-      <c r="G55" s="19">
-        <v>0</v>
-      </c>
-      <c r="H55" s="19">
-        <v>0</v>
-      </c>
-      <c r="I55" s="21">
+      <c r="G55" s="4">
+        <v>0</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="6">
         <v>4.7866669999999996</v>
       </c>
-      <c r="J55" s="21">
+      <c r="J55" s="6">
         <v>3.9</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="6">
         <v>12</v>
       </c>
-      <c r="L55" s="19">
-        <v>0</v>
-      </c>
-      <c r="M55" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="N55" s="23"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="22"/>
-    </row>
-    <row r="56" spans="1:19" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="19">
+      <c r="L55" s="4">
+        <v>0</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="4"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="6">
         <v>32</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="6">
         <v>0.155</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="6">
         <v>0.13999999999999999</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56" s="4">
         <v>53</v>
       </c>
-      <c r="G56" s="19">
-        <v>0</v>
-      </c>
-      <c r="H56" s="19">
-        <v>0</v>
-      </c>
-      <c r="I56" s="21">
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6">
         <v>4.7866669999999996</v>
       </c>
-      <c r="J56" s="21">
+      <c r="J56" s="6">
         <v>3.9</v>
       </c>
-      <c r="K56" s="21">
+      <c r="K56" s="6">
         <v>32</v>
       </c>
-      <c r="L56" s="19">
-        <v>0</v>
-      </c>
-      <c r="M56" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="N56" s="23"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-    </row>
-    <row r="57" spans="1:19" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="19">
+      <c r="L56" s="4">
+        <v>0</v>
+      </c>
+      <c r="M56" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+      <c r="O56" s="4"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C57" s="6">
         <v>34.5</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D57" s="6">
         <v>0.13</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="6">
         <v>0.12</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F57" s="4">
         <v>53</v>
       </c>
-      <c r="G57" s="19">
-        <v>0</v>
-      </c>
-      <c r="H57" s="19">
-        <v>0</v>
-      </c>
-      <c r="I57" s="21">
+      <c r="G57" s="4">
+        <v>0</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="6">
         <v>5.6</v>
       </c>
-      <c r="J57" s="21">
+      <c r="J57" s="6">
         <v>3.33</v>
       </c>
-      <c r="K57" s="21">
+      <c r="K57" s="6">
         <v>32</v>
       </c>
-      <c r="L57" s="19">
-        <v>0</v>
-      </c>
-      <c r="M57" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="N57" s="23"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="22"/>
+      <c r="L57" s="4">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+      <c r="O57" s="4"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
     </row>
     <row r="58" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
@@ -3228,7 +3329,9 @@
       <c r="M58" s="3">
         <v>0.5</v>
       </c>
-      <c r="N58" s="1"/>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
@@ -3270,7 +3373,9 @@
       <c r="M59" s="3">
         <v>0.5</v>
       </c>
-      <c r="N59" s="1"/>
+      <c r="N59" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
@@ -3312,7 +3417,9 @@
       <c r="M60" s="3">
         <v>0.5</v>
       </c>
-      <c r="N60" s="1"/>
+      <c r="N60" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
@@ -3354,7 +3461,9 @@
       <c r="M61" s="3">
         <v>0.5</v>
       </c>
-      <c r="N61" s="1"/>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
@@ -3396,7 +3505,9 @@
       <c r="M62" s="3">
         <v>0.5</v>
       </c>
-      <c r="N62" s="1"/>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
@@ -3438,7 +3549,9 @@
       <c r="M63" s="3">
         <v>0.5</v>
       </c>
-      <c r="N63" s="1"/>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
@@ -3480,7 +3593,9 @@
       <c r="M64" s="3">
         <v>0.5</v>
       </c>
-      <c r="N64" s="1"/>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
@@ -3522,7 +3637,9 @@
       <c r="M65" s="3">
         <v>0.5</v>
       </c>
-      <c r="N65" s="1"/>
+      <c r="N65" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
@@ -3564,7 +3681,9 @@
       <c r="M66" s="3">
         <v>0.5</v>
       </c>
-      <c r="N66" s="1"/>
+      <c r="N66" s="1">
+        <v>0</v>
+      </c>
       <c r="O66" s="4"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
@@ -3611,7 +3730,9 @@
       <c r="M67" s="3">
         <v>0.5</v>
       </c>
-      <c r="N67" s="1"/>
+      <c r="N67" s="1">
+        <v>0</v>
+      </c>
       <c r="O67" s="4"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -3658,7 +3779,9 @@
       <c r="M68" s="3">
         <v>0.5</v>
       </c>
-      <c r="N68" s="1"/>
+      <c r="N68" s="1">
+        <v>0</v>
+      </c>
       <c r="O68" s="4"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -3705,7 +3828,9 @@
       <c r="M69" s="3">
         <v>0.5</v>
       </c>
-      <c r="N69" s="1"/>
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
       <c r="O69" s="4"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -3752,7 +3877,9 @@
       <c r="M70" s="3">
         <v>0.5</v>
       </c>
-      <c r="N70" s="1"/>
+      <c r="N70" s="1">
+        <v>0</v>
+      </c>
       <c r="O70" s="4"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -3799,7 +3926,9 @@
       <c r="M71" s="13">
         <v>0.5</v>
       </c>
-      <c r="N71" s="14"/>
+      <c r="N71" s="1">
+        <v>0</v>
+      </c>
       <c r="O71" s="10"/>
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
@@ -3846,7 +3975,9 @@
       <c r="M72" s="13">
         <v>0.5</v>
       </c>
-      <c r="N72" s="14"/>
+      <c r="N72" s="1">
+        <v>0</v>
+      </c>
       <c r="O72" s="10"/>
       <c r="P72" s="14"/>
       <c r="Q72" s="14"/>
